--- a/@data/2021高考录取结果.xlsx
+++ b/@data/2021高考录取结果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\assets\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\@data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A5084C-B966-48DB-B2F0-B1A6FD831C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1701894-3C3B-4FD0-ABF5-A818691D1048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="278">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,6 +1053,86 @@
   </si>
   <si>
     <t>李雨阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘骏豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张潇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王正阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘淦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李万里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪万平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈文杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭鸣岐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾俊一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨工程大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国矿业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中农业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分子材料与工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行器适航技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源动力类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物生产类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1378,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3517,6 +3597,12 @@
       <c r="A98" t="s">
         <v>257</v>
       </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
       <c r="D98">
         <v>626</v>
       </c>
@@ -3530,7 +3616,263 @@
         <v>211</v>
       </c>
     </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>622</v>
+      </c>
+      <c r="E99" t="s">
+        <v>153</v>
+      </c>
+      <c r="F99" t="s">
+        <v>275</v>
+      </c>
+      <c r="H99">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>621</v>
+      </c>
+      <c r="E100" t="s">
+        <v>93</v>
+      </c>
+      <c r="F100" t="s">
+        <v>89</v>
+      </c>
+      <c r="H100">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>263</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>621</v>
+      </c>
+      <c r="E101" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" t="s">
+        <v>89</v>
+      </c>
+      <c r="H101">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>259</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>604</v>
+      </c>
+      <c r="E102" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" t="s">
+        <v>274</v>
+      </c>
+      <c r="H102">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103">
+        <v>602</v>
+      </c>
+      <c r="E103" t="s">
+        <v>270</v>
+      </c>
+      <c r="F103" t="s">
+        <v>276</v>
+      </c>
+      <c r="H103">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>602</v>
+      </c>
+      <c r="E104" t="s">
+        <v>271</v>
+      </c>
+      <c r="F104" t="s">
+        <v>89</v>
+      </c>
+      <c r="H104">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <v>600</v>
+      </c>
+      <c r="E105" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" t="s">
+        <v>39</v>
+      </c>
+      <c r="H105">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>265</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>600</v>
+      </c>
+      <c r="E106" t="s">
+        <v>271</v>
+      </c>
+      <c r="F106" t="s">
+        <v>83</v>
+      </c>
+      <c r="H106">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>599</v>
+      </c>
+      <c r="E107" t="s">
+        <v>272</v>
+      </c>
+      <c r="F107" t="s">
+        <v>104</v>
+      </c>
+      <c r="H107">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>268</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>583</v>
+      </c>
+      <c r="E108" t="s">
+        <v>273</v>
+      </c>
+      <c r="F108" t="s">
+        <v>277</v>
+      </c>
+      <c r="H108">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>267</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>582</v>
+      </c>
+      <c r="E109" t="s">
+        <v>111</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A98:H109">
+    <sortCondition descending="1" ref="D98:D109"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/@data/2021高考录取结果.xlsx
+++ b/@data/2021高考录取结果.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\@data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1701894-3C3B-4FD0-ABF5-A818691D1048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99814CB-1C19-4F10-9672-2381FFAFD6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="538">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1134,13 +1134,803 @@
   <si>
     <t>植物生产类</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张光恺</t>
+  </si>
+  <si>
+    <t>理科</t>
+  </si>
+  <si>
+    <t>西南交通大学</t>
+  </si>
+  <si>
+    <t>机械类</t>
+  </si>
+  <si>
+    <t>张琪</t>
+  </si>
+  <si>
+    <t>南京农业大学</t>
+  </si>
+  <si>
+    <t>黄海</t>
+  </si>
+  <si>
+    <t>上海中医药大学</t>
+  </si>
+  <si>
+    <t>药学(中外合作)</t>
+  </si>
+  <si>
+    <t>方浩伟</t>
+  </si>
+  <si>
+    <t>安徽医科大学</t>
+  </si>
+  <si>
+    <t>基础医学</t>
+  </si>
+  <si>
+    <t>河南大学</t>
+  </si>
+  <si>
+    <t>土木工程(中外合作)</t>
+  </si>
+  <si>
+    <t>江鹏</t>
+  </si>
+  <si>
+    <t>安徽工业大学</t>
+  </si>
+  <si>
+    <t>土木工程</t>
+  </si>
+  <si>
+    <t>王家辉</t>
+  </si>
+  <si>
+    <t>皖南医学院</t>
+  </si>
+  <si>
+    <t>预防医学</t>
+  </si>
+  <si>
+    <t>江乐爽</t>
+  </si>
+  <si>
+    <t>计算机类</t>
+  </si>
+  <si>
+    <t>李怡</t>
+  </si>
+  <si>
+    <t>湖南工业大学</t>
+  </si>
+  <si>
+    <t>电气工程及其自动化</t>
+  </si>
+  <si>
+    <t>项羿琳</t>
+  </si>
+  <si>
+    <t>上海电力大学</t>
+  </si>
+  <si>
+    <t>安徽建筑大学</t>
+  </si>
+  <si>
+    <t>建筑电气与智能化</t>
+  </si>
+  <si>
+    <t>张琛</t>
+  </si>
+  <si>
+    <t>材料类</t>
+  </si>
+  <si>
+    <t>傅西雨</t>
+  </si>
+  <si>
+    <t>武汉纺织大学</t>
+  </si>
+  <si>
+    <t>财务管理</t>
+  </si>
+  <si>
+    <t>俞亚美</t>
+  </si>
+  <si>
+    <t>阜阳师范大学</t>
+  </si>
+  <si>
+    <t>吴阳</t>
+  </si>
+  <si>
+    <t>中国医科大学</t>
+  </si>
+  <si>
+    <t>法医学</t>
+  </si>
+  <si>
+    <t>冯璟</t>
+  </si>
+  <si>
+    <t>蚌埠医学院</t>
+  </si>
+  <si>
+    <t>临床医学</t>
+  </si>
+  <si>
+    <t>安徽中医药大学</t>
+  </si>
+  <si>
+    <t>护理学</t>
+  </si>
+  <si>
+    <t>李书琪</t>
+  </si>
+  <si>
+    <t>江苏大学</t>
+  </si>
+  <si>
+    <t>环境工程</t>
+  </si>
+  <si>
+    <t>陈曌坤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程敏婕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡曌滢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶红</t>
+  </si>
+  <si>
+    <t>西交利物浦大学</t>
+  </si>
+  <si>
+    <t>工商管理（中外合作）</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>吴伟芳</t>
+  </si>
+  <si>
+    <t>安庆师范大学</t>
+  </si>
+  <si>
+    <t>小学教育</t>
+  </si>
+  <si>
+    <t>李子寒</t>
+  </si>
+  <si>
+    <t>安徽理工大学</t>
+  </si>
+  <si>
+    <t>数据科学与大数据技术</t>
+  </si>
+  <si>
+    <t>廖振羽</t>
+  </si>
+  <si>
+    <t>大连交通大学</t>
+  </si>
+  <si>
+    <t>轨道交通信号与控制</t>
+  </si>
+  <si>
+    <t>张万萱</t>
+  </si>
+  <si>
+    <t>柴皓锦</t>
+  </si>
+  <si>
+    <t>上海电机学院</t>
+  </si>
+  <si>
+    <t>曹安琦</t>
+  </si>
+  <si>
+    <t>智能医学工程</t>
+  </si>
+  <si>
+    <t>吕梦娜</t>
+  </si>
+  <si>
+    <t>成都中医药大学</t>
+  </si>
+  <si>
+    <t>药学</t>
+  </si>
+  <si>
+    <t>鄢龙威</t>
+  </si>
+  <si>
+    <t>安徽财经大学</t>
+  </si>
+  <si>
+    <t>物流管理</t>
+  </si>
+  <si>
+    <t>吴若然</t>
+  </si>
+  <si>
+    <t>华北水利水电大学</t>
+  </si>
+  <si>
+    <t>给排水科学与工程</t>
+  </si>
+  <si>
+    <t>桂乐乐</t>
+  </si>
+  <si>
+    <t>傅露</t>
+  </si>
+  <si>
+    <t>工程造价</t>
+  </si>
+  <si>
+    <t>焦祥政</t>
+  </si>
+  <si>
+    <t>安徽科技学院</t>
+  </si>
+  <si>
+    <t>种子科学与工程</t>
+  </si>
+  <si>
+    <t>复读</t>
+  </si>
+  <si>
+    <t>周亦延</t>
+  </si>
+  <si>
+    <t>重庆大学</t>
+  </si>
+  <si>
+    <t>工科试验班（工程与能源类）</t>
+  </si>
+  <si>
+    <t>汪郑羊</t>
+  </si>
+  <si>
+    <t>大连理工大学</t>
+  </si>
+  <si>
+    <t>土木类</t>
+  </si>
+  <si>
+    <t>朱琳</t>
+  </si>
+  <si>
+    <t>东北大学秦皇岛分校</t>
+  </si>
+  <si>
+    <t>工商管理类专业</t>
+  </si>
+  <si>
+    <t>王策</t>
+  </si>
+  <si>
+    <t>中南财经政法大学</t>
+  </si>
+  <si>
+    <t>计算机专业</t>
+  </si>
+  <si>
+    <t>申博</t>
+  </si>
+  <si>
+    <t>合肥工业大学</t>
+  </si>
+  <si>
+    <t>智能电网信息工程</t>
+  </si>
+  <si>
+    <t>郑俊杰</t>
+  </si>
+  <si>
+    <t>江南大学</t>
+  </si>
+  <si>
+    <t>物联网工程专业</t>
+  </si>
+  <si>
+    <t>陈青昊</t>
+  </si>
+  <si>
+    <t>土木类（智能城市）</t>
+  </si>
+  <si>
+    <t>郑乃样</t>
+  </si>
+  <si>
+    <t>南昌大学</t>
+  </si>
+  <si>
+    <t>汪忠灏</t>
+  </si>
+  <si>
+    <t>过程装备与控制工程</t>
+  </si>
+  <si>
+    <t>王杨钧</t>
+  </si>
+  <si>
+    <t>安徽大学</t>
+  </si>
+  <si>
+    <t>自动化</t>
+  </si>
+  <si>
+    <t>施旻彤</t>
+  </si>
+  <si>
+    <t>袁咏欣</t>
+  </si>
+  <si>
+    <t>武汉工程大学</t>
+  </si>
+  <si>
+    <t>信息与计算科学</t>
+  </si>
+  <si>
+    <t>戴璐</t>
+  </si>
+  <si>
+    <t>上海理工大学</t>
+  </si>
+  <si>
+    <t>工科实验班（电子与信息）</t>
+  </si>
+  <si>
+    <t>胡骏</t>
+  </si>
+  <si>
+    <t>汪希羚</t>
+  </si>
+  <si>
+    <t>魏传利</t>
+  </si>
+  <si>
+    <t>浙江工业大学</t>
+  </si>
+  <si>
+    <t>单睿希</t>
+  </si>
+  <si>
+    <t>浙江工商大学</t>
+  </si>
+  <si>
+    <t>外国语言文学类</t>
+  </si>
+  <si>
+    <t>余心瑶</t>
+  </si>
+  <si>
+    <t>广州大学</t>
+  </si>
+  <si>
+    <t>城乡规划专业</t>
+  </si>
+  <si>
+    <t>倪歌璠</t>
+  </si>
+  <si>
+    <t>安徽师范大学</t>
+  </si>
+  <si>
+    <t>经济学类</t>
+  </si>
+  <si>
+    <t>孙婉婷</t>
+  </si>
+  <si>
+    <t>上海海事大学</t>
+  </si>
+  <si>
+    <t>电气工程与智能控制</t>
+  </si>
+  <si>
+    <t>胡依峰</t>
+  </si>
+  <si>
+    <t>河北大学</t>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>陈诺</t>
+  </si>
+  <si>
+    <t>物理学专业</t>
+  </si>
+  <si>
+    <t>樊陆怡然</t>
+  </si>
+  <si>
+    <t>江西财大学</t>
+  </si>
+  <si>
+    <t>电子商务专业</t>
+  </si>
+  <si>
+    <t>王昊</t>
+  </si>
+  <si>
+    <t>上海应用技术大学</t>
+  </si>
+  <si>
+    <t>能源与动力工程</t>
+  </si>
+  <si>
+    <t>杨如意</t>
+  </si>
+  <si>
+    <t>环境与科学工程</t>
+  </si>
+  <si>
+    <t>余洋</t>
+  </si>
+  <si>
+    <t>周紫艳</t>
+  </si>
+  <si>
+    <t>南昌航空大学</t>
+  </si>
+  <si>
+    <t>计算机科学与工程</t>
+  </si>
+  <si>
+    <t>尹子慧</t>
+  </si>
+  <si>
+    <t>浙江中医药大学</t>
+  </si>
+  <si>
+    <t>健康服务与管理</t>
+  </si>
+  <si>
+    <t>王健宁</t>
+  </si>
+  <si>
+    <t>沈阳航空航天大学</t>
+  </si>
+  <si>
+    <t>机械设计制造及其自动化</t>
+  </si>
+  <si>
+    <t>冯钦</t>
+  </si>
+  <si>
+    <t>心理学专业</t>
+  </si>
+  <si>
+    <t>罗翊恺</t>
+  </si>
+  <si>
+    <t>天津工业大学</t>
+  </si>
+  <si>
+    <t>电气工程及其自动化专业</t>
+  </si>
+  <si>
+    <t>熊梓藤</t>
+  </si>
+  <si>
+    <t>大连外国语大学</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>向阳</t>
+  </si>
+  <si>
+    <t>应急技术与管理</t>
+  </si>
+  <si>
+    <t>张兴政</t>
+  </si>
+  <si>
+    <t>工商管理专业</t>
+  </si>
+  <si>
+    <t>宗晨昕</t>
+  </si>
+  <si>
+    <t>东北财经大学</t>
+  </si>
+  <si>
+    <t>电子信息类</t>
+  </si>
+  <si>
+    <t>章思睿</t>
+  </si>
+  <si>
+    <t>智能制造工程</t>
+  </si>
+  <si>
+    <t>杨伊涵</t>
+  </si>
+  <si>
+    <t>安徽农业大学</t>
+  </si>
+  <si>
+    <t>刘文扬</t>
+  </si>
+  <si>
+    <t>康复治疗学</t>
+  </si>
+  <si>
+    <t>王鹏</t>
+  </si>
+  <si>
+    <t>药学专业</t>
+  </si>
+  <si>
+    <t>周子康</t>
+  </si>
+  <si>
+    <t>中国人民警察大学</t>
+  </si>
+  <si>
+    <t>消防指挥</t>
+  </si>
+  <si>
+    <t>安徽农业大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋欣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州电子科技大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周奕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用统计学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏锦源</t>
+  </si>
+  <si>
+    <t>影像技术</t>
+  </si>
+  <si>
+    <t>吴璨儿</t>
+  </si>
+  <si>
+    <t>安徽公安职业学院</t>
+  </si>
+  <si>
+    <t>特警专业</t>
+  </si>
+  <si>
+    <t>郑兴勇</t>
+  </si>
+  <si>
+    <t>建筑环境与能源应用工程</t>
+  </si>
+  <si>
+    <t>李云飞</t>
+  </si>
+  <si>
+    <t>财务管理专业</t>
+  </si>
+  <si>
+    <t>梅方宁</t>
+  </si>
+  <si>
+    <t>统计学</t>
+  </si>
+  <si>
+    <t>肖银丰</t>
+  </si>
+  <si>
+    <t>材料成型及控制工程</t>
+  </si>
+  <si>
+    <t>汪旭</t>
+  </si>
+  <si>
+    <t>工业设计</t>
+  </si>
+  <si>
+    <t>方磊</t>
+  </si>
+  <si>
+    <t>国际经济与贸易</t>
+  </si>
+  <si>
+    <t>郑宇洋</t>
+  </si>
+  <si>
+    <t>鈄双灵</t>
+  </si>
+  <si>
+    <t>方成</t>
+  </si>
+  <si>
+    <t>东南大学</t>
+  </si>
+  <si>
+    <t>朱忆寒</t>
+  </si>
+  <si>
+    <t>哈尔滨工业大学威海分校</t>
+  </si>
+  <si>
+    <t>车辆工程专业</t>
+  </si>
+  <si>
+    <t>钟楚枫</t>
+  </si>
+  <si>
+    <t>工科试验班（管理专业与经济类）</t>
+  </si>
+  <si>
+    <t>疏承志</t>
+  </si>
+  <si>
+    <t>邝鸣宇</t>
+  </si>
+  <si>
+    <t>华北电力大学（北京）</t>
+  </si>
+  <si>
+    <t>能源动力类</t>
+  </si>
+  <si>
+    <t>王敏锋</t>
+  </si>
+  <si>
+    <t>电气类</t>
+  </si>
+  <si>
+    <t>汪鑫鹏</t>
+  </si>
+  <si>
+    <t>河海大学（常州校区）</t>
+  </si>
+  <si>
+    <t>计算机科学与技术</t>
+  </si>
+  <si>
+    <t>王嘉伟</t>
+  </si>
+  <si>
+    <t>李情怡</t>
+  </si>
+  <si>
+    <t>建筑学</t>
+  </si>
+  <si>
+    <t>洪曼鹏</t>
+  </si>
+  <si>
+    <t>赵旭康</t>
+  </si>
+  <si>
+    <t>东华大学</t>
+  </si>
+  <si>
+    <t>纺织类</t>
+  </si>
+  <si>
+    <t>吴柳航</t>
+  </si>
+  <si>
+    <t>江玮</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>涂尚伟</t>
+  </si>
+  <si>
+    <t>西北大学</t>
+  </si>
+  <si>
+    <t>化工与制药类</t>
+  </si>
+  <si>
+    <t>饶鑫</t>
+  </si>
+  <si>
+    <t>朱旭阳</t>
+  </si>
+  <si>
+    <t>长安大学</t>
+  </si>
+  <si>
+    <t>水利类</t>
+  </si>
+  <si>
+    <t>刘世豪</t>
+  </si>
+  <si>
+    <t>物理学类</t>
+  </si>
+  <si>
+    <t>吴炤未</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>陈建波</t>
+  </si>
+  <si>
+    <t>刘婧</t>
+  </si>
+  <si>
+    <t>华中农业大学</t>
+  </si>
+  <si>
+    <t>植物生产类</t>
+  </si>
+  <si>
+    <t>陈宇航</t>
+  </si>
+  <si>
+    <t>王子豪</t>
+  </si>
+  <si>
+    <t>辽宁大学</t>
+  </si>
+  <si>
+    <t>闻燃</t>
+  </si>
+  <si>
+    <t>海南大学</t>
+  </si>
+  <si>
+    <t>应用物理学</t>
+  </si>
+  <si>
+    <t>陈明怡</t>
+  </si>
+  <si>
+    <t>青海大学</t>
+  </si>
+  <si>
+    <t>冯听冉</t>
+  </si>
+  <si>
+    <t>工商管理(中外合作办学)</t>
+  </si>
+  <si>
+    <t>合肥工业大学（宣城）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,6 +1944,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1176,8 +1972,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1458,16 +2259,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1480,7 +2283,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1489,7 +2292,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1506,7 +2309,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>680</v>
       </c>
       <c r="E2" t="s">
@@ -1529,7 +2332,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>677</v>
       </c>
       <c r="E3" t="s">
@@ -1552,7 +2355,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>662</v>
       </c>
       <c r="E4" t="s">
@@ -1561,7 +2364,7 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H4">
@@ -1578,7 +2381,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>655</v>
       </c>
       <c r="E5" t="s">
@@ -1601,7 +2404,7 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>645</v>
       </c>
       <c r="E6" t="s">
@@ -1624,7 +2427,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>645</v>
       </c>
       <c r="E7" t="s">
@@ -1647,7 +2450,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>644</v>
       </c>
       <c r="E8" t="s">
@@ -1670,7 +2473,7 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>642</v>
       </c>
       <c r="E9" t="s">
@@ -1679,7 +2482,7 @@
       <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H9">
@@ -1696,7 +2499,7 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>640</v>
       </c>
       <c r="E10" t="s">
@@ -1719,7 +2522,7 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>640</v>
       </c>
       <c r="E11" t="s">
@@ -1742,7 +2545,7 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>637</v>
       </c>
       <c r="E12" t="s">
@@ -1765,7 +2568,7 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>636</v>
       </c>
       <c r="E13" t="s">
@@ -1788,7 +2591,7 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>634</v>
       </c>
       <c r="E14" t="s">
@@ -1811,7 +2614,7 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>633</v>
       </c>
       <c r="E15" t="s">
@@ -1834,7 +2637,7 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>632</v>
       </c>
       <c r="E16" t="s">
@@ -1857,7 +2660,7 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>629</v>
       </c>
       <c r="E17" t="s">
@@ -1880,7 +2683,7 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>623</v>
       </c>
       <c r="E18" t="s">
@@ -1903,7 +2706,7 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>621</v>
       </c>
       <c r="E19" t="s">
@@ -1926,7 +2729,7 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>620</v>
       </c>
       <c r="E20" t="s">
@@ -1949,7 +2752,7 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>610</v>
       </c>
       <c r="E21" t="s">
@@ -1972,7 +2775,7 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>607</v>
       </c>
       <c r="E22" t="s">
@@ -1995,7 +2798,7 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>593</v>
       </c>
       <c r="E23" t="s">
@@ -2018,7 +2821,7 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>634</v>
       </c>
       <c r="E24" t="s">
@@ -2041,7 +2844,7 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>627</v>
       </c>
       <c r="E25" t="s">
@@ -2064,7 +2867,7 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>625</v>
       </c>
       <c r="E26" t="s">
@@ -2087,7 +2890,7 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>622</v>
       </c>
       <c r="E27" t="s">
@@ -2110,7 +2913,7 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>619</v>
       </c>
       <c r="E28" t="s">
@@ -2133,7 +2936,7 @@
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>619</v>
       </c>
       <c r="E29" t="s">
@@ -2156,7 +2959,7 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>615</v>
       </c>
       <c r="E30" t="s">
@@ -2179,7 +2982,7 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>615</v>
       </c>
       <c r="E31" t="s">
@@ -2202,7 +3005,7 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>605</v>
       </c>
       <c r="E32" t="s">
@@ -2225,7 +3028,7 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>600</v>
       </c>
       <c r="E33" t="s">
@@ -2248,7 +3051,7 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>600</v>
       </c>
       <c r="E34" t="s">
@@ -2271,7 +3074,7 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>594</v>
       </c>
       <c r="E35" t="s">
@@ -2294,7 +3097,7 @@
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>593</v>
       </c>
       <c r="E36" t="s">
@@ -2317,7 +3120,7 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>588</v>
       </c>
       <c r="E37" t="s">
@@ -2340,7 +3143,7 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>584</v>
       </c>
       <c r="E38" t="s">
@@ -2360,7 +3163,7 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>582</v>
       </c>
       <c r="E39" t="s">
@@ -2380,7 +3183,7 @@
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>574</v>
       </c>
       <c r="E40" t="s">
@@ -2400,7 +3203,7 @@
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>614</v>
       </c>
       <c r="E41" t="s">
@@ -2420,7 +3223,7 @@
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>606</v>
       </c>
       <c r="E42" t="s">
@@ -2440,7 +3243,7 @@
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>578</v>
       </c>
       <c r="E43" t="s">
@@ -2460,7 +3263,7 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>569</v>
       </c>
       <c r="E44" t="s">
@@ -2480,7 +3283,7 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>567</v>
       </c>
       <c r="E45" t="s">
@@ -2500,7 +3303,7 @@
       <c r="C46" t="s">
         <v>134</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>650</v>
       </c>
       <c r="E46" t="s">
@@ -2523,7 +3326,7 @@
       <c r="C47" t="s">
         <v>134</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>645</v>
       </c>
       <c r="E47" t="s">
@@ -2546,7 +3349,7 @@
       <c r="C48" t="s">
         <v>134</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>640</v>
       </c>
       <c r="E48" t="s">
@@ -2569,7 +3372,7 @@
       <c r="C49" t="s">
         <v>134</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>640</v>
       </c>
       <c r="E49" t="s">
@@ -2592,7 +3395,7 @@
       <c r="C50" t="s">
         <v>134</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>638</v>
       </c>
       <c r="E50" t="s">
@@ -2615,7 +3418,7 @@
       <c r="C51" t="s">
         <v>134</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>634</v>
       </c>
       <c r="E51" t="s">
@@ -2638,7 +3441,7 @@
       <c r="C52" t="s">
         <v>134</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>634</v>
       </c>
       <c r="E52" t="s">
@@ -2661,7 +3464,7 @@
       <c r="C53" t="s">
         <v>134</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>630</v>
       </c>
       <c r="E53" t="s">
@@ -2684,7 +3487,7 @@
       <c r="C54" t="s">
         <v>134</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>621</v>
       </c>
       <c r="E54" t="s">
@@ -2707,7 +3510,7 @@
       <c r="C55" t="s">
         <v>134</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>621</v>
       </c>
       <c r="E55" t="s">
@@ -2730,7 +3533,7 @@
       <c r="C56" t="s">
         <v>134</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>620</v>
       </c>
       <c r="E56" t="s">
@@ -2753,7 +3556,7 @@
       <c r="C57" t="s">
         <v>134</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>618</v>
       </c>
       <c r="E57" t="s">
@@ -2776,7 +3579,7 @@
       <c r="C58" t="s">
         <v>134</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>615</v>
       </c>
       <c r="E58" t="s">
@@ -2799,7 +3602,7 @@
       <c r="C59" t="s">
         <v>134</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>614</v>
       </c>
       <c r="E59" t="s">
@@ -2822,7 +3625,7 @@
       <c r="C60" t="s">
         <v>134</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>611</v>
       </c>
       <c r="E60" t="s">
@@ -2845,7 +3648,7 @@
       <c r="C61" t="s">
         <v>134</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>611</v>
       </c>
       <c r="E61" t="s">
@@ -2868,7 +3671,7 @@
       <c r="C62" t="s">
         <v>134</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>628</v>
       </c>
       <c r="E62" t="s">
@@ -2888,7 +3691,7 @@
       <c r="C63" t="s">
         <v>134</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>625</v>
       </c>
       <c r="E63" t="s">
@@ -2908,7 +3711,7 @@
       <c r="C64" t="s">
         <v>134</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>623</v>
       </c>
       <c r="E64" t="s">
@@ -2928,7 +3731,7 @@
       <c r="C65" t="s">
         <v>134</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>621</v>
       </c>
       <c r="E65" t="s">
@@ -2948,7 +3751,7 @@
       <c r="C66" t="s">
         <v>134</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>609</v>
       </c>
       <c r="E66" t="s">
@@ -2968,7 +3771,7 @@
       <c r="C67" t="s">
         <v>134</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>608</v>
       </c>
       <c r="E67" t="s">
@@ -2988,7 +3791,7 @@
       <c r="C68" t="s">
         <v>134</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>605</v>
       </c>
       <c r="E68" t="s">
@@ -3008,7 +3811,7 @@
       <c r="C69" t="s">
         <v>134</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>604</v>
       </c>
       <c r="E69" t="s">
@@ -3028,7 +3831,7 @@
       <c r="C70" t="s">
         <v>134</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>604</v>
       </c>
       <c r="E70" t="s">
@@ -3048,7 +3851,7 @@
       <c r="C71" t="s">
         <v>134</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>603</v>
       </c>
       <c r="E71" t="s">
@@ -3068,7 +3871,7 @@
       <c r="C72" t="s">
         <v>134</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>602</v>
       </c>
       <c r="E72" t="s">
@@ -3088,7 +3891,7 @@
       <c r="C73" t="s">
         <v>134</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>601</v>
       </c>
       <c r="E73" t="s">
@@ -3108,7 +3911,7 @@
       <c r="C74" t="s">
         <v>134</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>600</v>
       </c>
       <c r="E74" t="s">
@@ -3128,7 +3931,7 @@
       <c r="C75" t="s">
         <v>134</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>597</v>
       </c>
       <c r="E75" t="s">
@@ -3148,7 +3951,7 @@
       <c r="C76" t="s">
         <v>134</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>596</v>
       </c>
       <c r="E76" t="s">
@@ -3168,7 +3971,7 @@
       <c r="C77" t="s">
         <v>134</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>594</v>
       </c>
       <c r="E77" t="s">
@@ -3188,7 +3991,7 @@
       <c r="C78" t="s">
         <v>134</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>593</v>
       </c>
       <c r="E78" t="s">
@@ -3208,7 +4011,7 @@
       <c r="C79" t="s">
         <v>134</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>593</v>
       </c>
       <c r="E79" t="s">
@@ -3228,7 +4031,7 @@
       <c r="C80" t="s">
         <v>134</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>592</v>
       </c>
       <c r="E80" t="s">
@@ -3248,7 +4051,7 @@
       <c r="C81" t="s">
         <v>134</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>592</v>
       </c>
       <c r="E81" t="s">
@@ -3268,7 +4071,7 @@
       <c r="C82" t="s">
         <v>134</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>587</v>
       </c>
       <c r="E82" t="s">
@@ -3288,7 +4091,7 @@
       <c r="C83" t="s">
         <v>134</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>586</v>
       </c>
       <c r="E83" t="s">
@@ -3308,7 +4111,7 @@
       <c r="C84" t="s">
         <v>134</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>580</v>
       </c>
       <c r="E84" t="s">
@@ -3328,7 +4131,7 @@
       <c r="C85" t="s">
         <v>134</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>579</v>
       </c>
       <c r="E85" t="s">
@@ -3348,7 +4151,7 @@
       <c r="C86" t="s">
         <v>134</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>577</v>
       </c>
       <c r="E86" t="s">
@@ -3368,7 +4171,7 @@
       <c r="C87" t="s">
         <v>134</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>574</v>
       </c>
       <c r="E87" t="s">
@@ -3388,7 +4191,7 @@
       <c r="C88" t="s">
         <v>134</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>575</v>
       </c>
       <c r="E88" t="s">
@@ -3408,7 +4211,7 @@
       <c r="C89" t="s">
         <v>134</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>571</v>
       </c>
       <c r="E89" t="s">
@@ -3428,7 +4231,7 @@
       <c r="C90" t="s">
         <v>134</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>571</v>
       </c>
       <c r="E90" t="s">
@@ -3448,7 +4251,7 @@
       <c r="C91" t="s">
         <v>134</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>570</v>
       </c>
       <c r="E91" t="s">
@@ -3468,7 +4271,7 @@
       <c r="C92" t="s">
         <v>134</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>565</v>
       </c>
       <c r="E92" t="s">
@@ -3488,7 +4291,7 @@
       <c r="C93" t="s">
         <v>9</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>639</v>
       </c>
       <c r="E93" t="s">
@@ -3511,7 +4314,7 @@
       <c r="C94" t="s">
         <v>9</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>637</v>
       </c>
       <c r="E94" t="s">
@@ -3534,7 +4337,7 @@
       <c r="C95" t="s">
         <v>9</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>630</v>
       </c>
       <c r="E95" t="s">
@@ -3557,7 +4360,7 @@
       <c r="C96" t="s">
         <v>9</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>630</v>
       </c>
       <c r="E96" t="s">
@@ -3580,7 +4383,7 @@
       <c r="C97" t="s">
         <v>9</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>610</v>
       </c>
       <c r="E97" t="s">
@@ -3603,7 +4406,7 @@
       <c r="C98" t="s">
         <v>9</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>626</v>
       </c>
       <c r="E98" t="s">
@@ -3626,7 +4429,7 @@
       <c r="C99" t="s">
         <v>9</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>622</v>
       </c>
       <c r="E99" t="s">
@@ -3649,7 +4452,7 @@
       <c r="C100" t="s">
         <v>9</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>621</v>
       </c>
       <c r="E100" t="s">
@@ -3672,7 +4475,7 @@
       <c r="C101" t="s">
         <v>9</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>621</v>
       </c>
       <c r="E101" t="s">
@@ -3695,7 +4498,7 @@
       <c r="C102" t="s">
         <v>9</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>604</v>
       </c>
       <c r="E102" t="s">
@@ -3718,7 +4521,7 @@
       <c r="C103" t="s">
         <v>9</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>602</v>
       </c>
       <c r="E103" t="s">
@@ -3741,7 +4544,7 @@
       <c r="C104" t="s">
         <v>9</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>602</v>
       </c>
       <c r="E104" t="s">
@@ -3764,7 +4567,7 @@
       <c r="C105" t="s">
         <v>9</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>600</v>
       </c>
       <c r="E105" t="s">
@@ -3787,7 +4590,7 @@
       <c r="C106" t="s">
         <v>9</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>600</v>
       </c>
       <c r="E106" t="s">
@@ -3810,7 +4613,7 @@
       <c r="C107" t="s">
         <v>9</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>599</v>
       </c>
       <c r="E107" t="s">
@@ -3833,7 +4636,7 @@
       <c r="C108" t="s">
         <v>9</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>583</v>
       </c>
       <c r="E108" t="s">
@@ -3856,7 +4659,7 @@
       <c r="C109" t="s">
         <v>9</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>582</v>
       </c>
       <c r="E109" t="s">
@@ -3866,6 +4669,2460 @@
         <v>36</v>
       </c>
       <c r="H109">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>278</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>279</v>
+      </c>
+      <c r="D110" s="2">
+        <v>609</v>
+      </c>
+      <c r="E110" t="s">
+        <v>280</v>
+      </c>
+      <c r="F110" t="s">
+        <v>281</v>
+      </c>
+      <c r="H110">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>279</v>
+      </c>
+      <c r="D111" s="2">
+        <v>594</v>
+      </c>
+      <c r="E111" t="s">
+        <v>283</v>
+      </c>
+      <c r="F111" t="s">
+        <v>281</v>
+      </c>
+      <c r="H111">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>284</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>279</v>
+      </c>
+      <c r="D112" s="2">
+        <v>569</v>
+      </c>
+      <c r="E112" t="s">
+        <v>285</v>
+      </c>
+      <c r="F112" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>287</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>279</v>
+      </c>
+      <c r="D113" s="1">
+        <v>568</v>
+      </c>
+      <c r="E113" t="s">
+        <v>288</v>
+      </c>
+      <c r="F113" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>325</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>279</v>
+      </c>
+      <c r="D114" s="1">
+        <v>553</v>
+      </c>
+      <c r="E114" t="s">
+        <v>290</v>
+      </c>
+      <c r="F114" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>292</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>279</v>
+      </c>
+      <c r="D115" s="2">
+        <v>525</v>
+      </c>
+      <c r="E115" t="s">
+        <v>293</v>
+      </c>
+      <c r="F115" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>295</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>279</v>
+      </c>
+      <c r="D116" s="1">
+        <v>545</v>
+      </c>
+      <c r="E116" t="s">
+        <v>296</v>
+      </c>
+      <c r="F116" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>298</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>279</v>
+      </c>
+      <c r="D117" s="1">
+        <v>549</v>
+      </c>
+      <c r="E117" t="s">
+        <v>293</v>
+      </c>
+      <c r="F117" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>300</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>279</v>
+      </c>
+      <c r="D118" s="1">
+        <v>557</v>
+      </c>
+      <c r="E118" t="s">
+        <v>301</v>
+      </c>
+      <c r="F118" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>279</v>
+      </c>
+      <c r="D119" s="1">
+        <v>584</v>
+      </c>
+      <c r="E119" t="s">
+        <v>304</v>
+      </c>
+      <c r="F119" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>326</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" s="1">
+        <v>541</v>
+      </c>
+      <c r="E120" t="s">
+        <v>305</v>
+      </c>
+      <c r="F120" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>307</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>279</v>
+      </c>
+      <c r="D121" s="1">
+        <v>545</v>
+      </c>
+      <c r="E121" t="s">
+        <v>293</v>
+      </c>
+      <c r="F121" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>309</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>279</v>
+      </c>
+      <c r="D122" s="2">
+        <v>546</v>
+      </c>
+      <c r="E122" t="s">
+        <v>310</v>
+      </c>
+      <c r="F122" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>312</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>279</v>
+      </c>
+      <c r="D123" s="2">
+        <v>494</v>
+      </c>
+      <c r="E123" t="s">
+        <v>313</v>
+      </c>
+      <c r="F123" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>314</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>279</v>
+      </c>
+      <c r="D124" s="1">
+        <v>571</v>
+      </c>
+      <c r="E124" t="s">
+        <v>315</v>
+      </c>
+      <c r="F124" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>317</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" s="1">
+        <v>563</v>
+      </c>
+      <c r="E125" t="s">
+        <v>318</v>
+      </c>
+      <c r="F125" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>327</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>279</v>
+      </c>
+      <c r="D126" s="2">
+        <v>498</v>
+      </c>
+      <c r="E126" t="s">
+        <v>320</v>
+      </c>
+      <c r="F126" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>322</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>279</v>
+      </c>
+      <c r="D127" s="2">
+        <v>577</v>
+      </c>
+      <c r="E127" t="s">
+        <v>323</v>
+      </c>
+      <c r="F127" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>328</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>279</v>
+      </c>
+      <c r="D128" s="1">
+        <v>533</v>
+      </c>
+      <c r="E128" t="s">
+        <v>329</v>
+      </c>
+      <c r="F128" t="s">
+        <v>330</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H128" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>332</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>279</v>
+      </c>
+      <c r="D129" s="1">
+        <v>512</v>
+      </c>
+      <c r="E129" t="s">
+        <v>333</v>
+      </c>
+      <c r="F129" t="s">
+        <v>334</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H129" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>335</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>279</v>
+      </c>
+      <c r="D130" s="1">
+        <v>529</v>
+      </c>
+      <c r="E130" t="s">
+        <v>336</v>
+      </c>
+      <c r="F130" t="s">
+        <v>337</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H130" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>338</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>279</v>
+      </c>
+      <c r="D131" s="1">
+        <v>558</v>
+      </c>
+      <c r="E131" t="s">
+        <v>339</v>
+      </c>
+      <c r="F131" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" s="1">
+        <v>519</v>
+      </c>
+      <c r="E132" t="s">
+        <v>288</v>
+      </c>
+      <c r="F132" t="s">
+        <v>321</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H132" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>342</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>279</v>
+      </c>
+      <c r="D133" s="1">
+        <v>550</v>
+      </c>
+      <c r="E133" t="s">
+        <v>343</v>
+      </c>
+      <c r="F133" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>344</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" s="1">
+        <v>540</v>
+      </c>
+      <c r="E134" t="s">
+        <v>288</v>
+      </c>
+      <c r="F134" t="s">
+        <v>345</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H134" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>346</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>279</v>
+      </c>
+      <c r="D135" s="1">
+        <v>564</v>
+      </c>
+      <c r="E135" t="s">
+        <v>347</v>
+      </c>
+      <c r="F135" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>349</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>279</v>
+      </c>
+      <c r="D136" s="1">
+        <v>541</v>
+      </c>
+      <c r="E136" t="s">
+        <v>350</v>
+      </c>
+      <c r="F136" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>352</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>279</v>
+      </c>
+      <c r="D137" s="1">
+        <v>547</v>
+      </c>
+      <c r="E137" t="s">
+        <v>353</v>
+      </c>
+      <c r="F137" t="s">
+        <v>354</v>
+      </c>
+      <c r="H137" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>355</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>279</v>
+      </c>
+      <c r="D138" s="1">
+        <v>557</v>
+      </c>
+      <c r="E138" t="s">
+        <v>301</v>
+      </c>
+      <c r="F138" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>356</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>279</v>
+      </c>
+      <c r="D139" s="1">
+        <v>515</v>
+      </c>
+      <c r="E139" t="s">
+        <v>336</v>
+      </c>
+      <c r="F139" t="s">
+        <v>357</v>
+      </c>
+      <c r="H139" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>358</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>279</v>
+      </c>
+      <c r="D140" s="1">
+        <v>443</v>
+      </c>
+      <c r="E140" t="s">
+        <v>359</v>
+      </c>
+      <c r="F140" t="s">
+        <v>360</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>362</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>279</v>
+      </c>
+      <c r="D141" s="1">
+        <v>628</v>
+      </c>
+      <c r="E141" t="s">
+        <v>363</v>
+      </c>
+      <c r="F141" t="s">
+        <v>364</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H141">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>365</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>279</v>
+      </c>
+      <c r="D142" s="1">
+        <v>625</v>
+      </c>
+      <c r="E142" t="s">
+        <v>366</v>
+      </c>
+      <c r="F142" t="s">
+        <v>367</v>
+      </c>
+      <c r="H142">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>368</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>279</v>
+      </c>
+      <c r="D143" s="1">
+        <v>603</v>
+      </c>
+      <c r="E143" t="s">
+        <v>369</v>
+      </c>
+      <c r="F143" t="s">
+        <v>370</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H143">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>371</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>279</v>
+      </c>
+      <c r="D144" s="1">
+        <v>616</v>
+      </c>
+      <c r="E144" t="s">
+        <v>372</v>
+      </c>
+      <c r="F144" t="s">
+        <v>373</v>
+      </c>
+      <c r="H144">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>374</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>279</v>
+      </c>
+      <c r="D145" s="1">
+        <v>610</v>
+      </c>
+      <c r="E145" t="s">
+        <v>375</v>
+      </c>
+      <c r="F145" t="s">
+        <v>376</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H145">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>377</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>279</v>
+      </c>
+      <c r="D146" s="1">
+        <v>608</v>
+      </c>
+      <c r="E146" t="s">
+        <v>378</v>
+      </c>
+      <c r="F146" t="s">
+        <v>379</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H146">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>380</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>279</v>
+      </c>
+      <c r="D147" s="1">
+        <v>605</v>
+      </c>
+      <c r="E147" t="s">
+        <v>375</v>
+      </c>
+      <c r="F147" t="s">
+        <v>381</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H147">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>382</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>279</v>
+      </c>
+      <c r="D148" s="1">
+        <v>605</v>
+      </c>
+      <c r="E148" t="s">
+        <v>383</v>
+      </c>
+      <c r="F148" t="s">
+        <v>373</v>
+      </c>
+      <c r="H148">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>384</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>279</v>
+      </c>
+      <c r="D149" s="1">
+        <v>601</v>
+      </c>
+      <c r="E149" t="s">
+        <v>378</v>
+      </c>
+      <c r="F149" t="s">
+        <v>385</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H149">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>386</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>279</v>
+      </c>
+      <c r="D150" s="1">
+        <v>585</v>
+      </c>
+      <c r="E150" t="s">
+        <v>387</v>
+      </c>
+      <c r="F150" t="s">
+        <v>388</v>
+      </c>
+      <c r="H150">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>389</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>279</v>
+      </c>
+      <c r="D151" s="1">
+        <v>578</v>
+      </c>
+      <c r="E151" t="s">
+        <v>387</v>
+      </c>
+      <c r="F151" t="s">
+        <v>169</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H151">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>390</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>279</v>
+      </c>
+      <c r="D152" s="1">
+        <v>573</v>
+      </c>
+      <c r="E152" t="s">
+        <v>391</v>
+      </c>
+      <c r="F152" t="s">
+        <v>392</v>
+      </c>
+      <c r="H152">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>393</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>279</v>
+      </c>
+      <c r="D153" s="1">
+        <v>599</v>
+      </c>
+      <c r="E153" t="s">
+        <v>394</v>
+      </c>
+      <c r="F153" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>396</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>279</v>
+      </c>
+      <c r="D154" s="1">
+        <v>597</v>
+      </c>
+      <c r="E154" t="s">
+        <v>394</v>
+      </c>
+      <c r="F154" t="s">
+        <v>395</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>397</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>279</v>
+      </c>
+      <c r="D155" s="1">
+        <v>596</v>
+      </c>
+      <c r="E155" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" t="s">
+        <v>319</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>462</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>279</v>
+      </c>
+      <c r="D156" s="1">
+        <v>592</v>
+      </c>
+      <c r="E156" t="s">
+        <v>463</v>
+      </c>
+      <c r="F156" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>398</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" s="1">
+        <v>578</v>
+      </c>
+      <c r="E157" t="s">
+        <v>399</v>
+      </c>
+      <c r="F157" t="s">
+        <v>281</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>400</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158" t="s">
+        <v>279</v>
+      </c>
+      <c r="D158" s="1">
+        <v>573</v>
+      </c>
+      <c r="E158" t="s">
+        <v>401</v>
+      </c>
+      <c r="F158" t="s">
+        <v>402</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>403</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>279</v>
+      </c>
+      <c r="D159" s="1">
+        <v>570</v>
+      </c>
+      <c r="E159" t="s">
+        <v>404</v>
+      </c>
+      <c r="F159" t="s">
+        <v>405</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>406</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>279</v>
+      </c>
+      <c r="D160" s="1">
+        <v>569</v>
+      </c>
+      <c r="E160" t="s">
+        <v>407</v>
+      </c>
+      <c r="F160" t="s">
+        <v>408</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>409</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161" t="s">
+        <v>279</v>
+      </c>
+      <c r="D161" s="1">
+        <v>568</v>
+      </c>
+      <c r="E161" t="s">
+        <v>410</v>
+      </c>
+      <c r="F161" t="s">
+        <v>411</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>412</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162" t="s">
+        <v>279</v>
+      </c>
+      <c r="D162" s="1">
+        <v>566</v>
+      </c>
+      <c r="E162" t="s">
+        <v>413</v>
+      </c>
+      <c r="F162" t="s">
+        <v>414</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>415</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163" t="s">
+        <v>279</v>
+      </c>
+      <c r="D163" s="1">
+        <v>565</v>
+      </c>
+      <c r="E163" t="s">
+        <v>407</v>
+      </c>
+      <c r="F163" t="s">
+        <v>416</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>417</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164" t="s">
+        <v>279</v>
+      </c>
+      <c r="D164" s="1">
+        <v>565</v>
+      </c>
+      <c r="E164" t="s">
+        <v>418</v>
+      </c>
+      <c r="F164" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>420</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165" t="s">
+        <v>279</v>
+      </c>
+      <c r="D165" s="1">
+        <v>563</v>
+      </c>
+      <c r="E165" t="s">
+        <v>421</v>
+      </c>
+      <c r="F165" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>423</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>279</v>
+      </c>
+      <c r="D166" s="1">
+        <v>563</v>
+      </c>
+      <c r="E166" t="s">
+        <v>407</v>
+      </c>
+      <c r="F166" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>425</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>279</v>
+      </c>
+      <c r="D167" s="1">
+        <v>562</v>
+      </c>
+      <c r="E167" t="s">
+        <v>318</v>
+      </c>
+      <c r="F167" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>426</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>279</v>
+      </c>
+      <c r="D168" s="1">
+        <v>564</v>
+      </c>
+      <c r="E168" t="s">
+        <v>427</v>
+      </c>
+      <c r="F168" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>429</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>279</v>
+      </c>
+      <c r="D169" s="1">
+        <v>561</v>
+      </c>
+      <c r="E169" t="s">
+        <v>430</v>
+      </c>
+      <c r="F169" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>432</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>279</v>
+      </c>
+      <c r="D170" s="1">
+        <v>558</v>
+      </c>
+      <c r="E170" t="s">
+        <v>433</v>
+      </c>
+      <c r="F170" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>435</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>279</v>
+      </c>
+      <c r="D171" s="1">
+        <v>554</v>
+      </c>
+      <c r="E171" t="s">
+        <v>407</v>
+      </c>
+      <c r="F171" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>437</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>279</v>
+      </c>
+      <c r="D172" s="1">
+        <v>554</v>
+      </c>
+      <c r="E172" t="s">
+        <v>438</v>
+      </c>
+      <c r="F172" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>440</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>279</v>
+      </c>
+      <c r="D173" s="1">
+        <v>553</v>
+      </c>
+      <c r="E173" t="s">
+        <v>441</v>
+      </c>
+      <c r="F173" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>443</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>279</v>
+      </c>
+      <c r="D174" s="1">
+        <v>552</v>
+      </c>
+      <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>445</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>279</v>
+      </c>
+      <c r="D175" s="1">
+        <v>552</v>
+      </c>
+      <c r="E175" t="s">
+        <v>407</v>
+      </c>
+      <c r="F175" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>447</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>279</v>
+      </c>
+      <c r="D176" s="1">
+        <v>552</v>
+      </c>
+      <c r="E176" t="s">
+        <v>448</v>
+      </c>
+      <c r="F176" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>450</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>279</v>
+      </c>
+      <c r="D177" s="1">
+        <v>544</v>
+      </c>
+      <c r="E177" t="s">
+        <v>343</v>
+      </c>
+      <c r="F177" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>452</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>279</v>
+      </c>
+      <c r="D178" s="1">
+        <v>544</v>
+      </c>
+      <c r="E178" t="s">
+        <v>453</v>
+      </c>
+      <c r="F178" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>454</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179" t="s">
+        <v>279</v>
+      </c>
+      <c r="D179" s="1">
+        <v>542</v>
+      </c>
+      <c r="E179" t="s">
+        <v>288</v>
+      </c>
+      <c r="F179" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>456</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>279</v>
+      </c>
+      <c r="D180" s="1">
+        <v>541</v>
+      </c>
+      <c r="E180" t="s">
+        <v>296</v>
+      </c>
+      <c r="F180" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>458</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181" t="s">
+        <v>279</v>
+      </c>
+      <c r="D181" s="1">
+        <v>541</v>
+      </c>
+      <c r="E181" t="s">
+        <v>459</v>
+      </c>
+      <c r="F181" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>465</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182" t="s">
+        <v>279</v>
+      </c>
+      <c r="D182" s="1">
+        <v>538</v>
+      </c>
+      <c r="E182" t="s">
+        <v>461</v>
+      </c>
+      <c r="F182" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>467</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183" t="s">
+        <v>279</v>
+      </c>
+      <c r="D183" s="1">
+        <v>534</v>
+      </c>
+      <c r="E183" t="s">
+        <v>296</v>
+      </c>
+      <c r="F183" t="s">
+        <v>468</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H183" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>469</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184" t="s">
+        <v>279</v>
+      </c>
+      <c r="D184" s="1">
+        <v>532</v>
+      </c>
+      <c r="E184" t="s">
+        <v>470</v>
+      </c>
+      <c r="F184" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>472</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185" t="s">
+        <v>279</v>
+      </c>
+      <c r="D185" s="1">
+        <v>531</v>
+      </c>
+      <c r="E185" t="s">
+        <v>305</v>
+      </c>
+      <c r="F185" t="s">
+        <v>473</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H185" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>474</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="C186" t="s">
+        <v>279</v>
+      </c>
+      <c r="D186" s="1">
+        <v>530</v>
+      </c>
+      <c r="E186" t="s">
+        <v>293</v>
+      </c>
+      <c r="F186" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>476</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>279</v>
+      </c>
+      <c r="D187" s="1">
+        <v>529</v>
+      </c>
+      <c r="E187" t="s">
+        <v>305</v>
+      </c>
+      <c r="F187" t="s">
+        <v>477</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H187" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>478</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188" t="s">
+        <v>279</v>
+      </c>
+      <c r="D188" s="1">
+        <v>526</v>
+      </c>
+      <c r="E188" t="s">
+        <v>293</v>
+      </c>
+      <c r="F188" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>480</v>
+      </c>
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189" t="s">
+        <v>279</v>
+      </c>
+      <c r="D189" s="1">
+        <v>518</v>
+      </c>
+      <c r="E189" t="s">
+        <v>293</v>
+      </c>
+      <c r="F189" t="s">
+        <v>481</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H189" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>482</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190" t="s">
+        <v>279</v>
+      </c>
+      <c r="D190" s="1">
+        <v>507</v>
+      </c>
+      <c r="E190" t="s">
+        <v>320</v>
+      </c>
+      <c r="F190" t="s">
+        <v>483</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H190" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>484</v>
+      </c>
+      <c r="B191">
+        <v>4</v>
+      </c>
+      <c r="C191" t="s">
+        <v>279</v>
+      </c>
+      <c r="D191" s="1">
+        <v>500</v>
+      </c>
+      <c r="E191" t="s">
+        <v>320</v>
+      </c>
+      <c r="F191" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>485</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D192" s="1">
+        <v>499</v>
+      </c>
+      <c r="E192" t="s">
+        <v>313</v>
+      </c>
+      <c r="F192" t="s">
+        <v>419</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H192" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>486</v>
+      </c>
+      <c r="B193">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>279</v>
+      </c>
+      <c r="D193" s="1">
+        <v>652</v>
+      </c>
+      <c r="E193" t="s">
+        <v>487</v>
+      </c>
+      <c r="F193" t="s">
+        <v>449</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H193">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>488</v>
+      </c>
+      <c r="B194">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>279</v>
+      </c>
+      <c r="D194" s="1">
+        <v>633</v>
+      </c>
+      <c r="E194" t="s">
+        <v>489</v>
+      </c>
+      <c r="F194" t="s">
+        <v>490</v>
+      </c>
+      <c r="H194">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>491</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>279</v>
+      </c>
+      <c r="D195" s="1">
+        <v>630</v>
+      </c>
+      <c r="E195" t="s">
+        <v>363</v>
+      </c>
+      <c r="F195" t="s">
+        <v>492</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H195">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>493</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>279</v>
+      </c>
+      <c r="D196" s="1">
+        <v>601</v>
+      </c>
+      <c r="E196" t="s">
+        <v>369</v>
+      </c>
+      <c r="F196" t="s">
+        <v>402</v>
+      </c>
+      <c r="H196">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>494</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>279</v>
+      </c>
+      <c r="D197" s="1">
+        <v>619</v>
+      </c>
+      <c r="E197" t="s">
+        <v>495</v>
+      </c>
+      <c r="F197" t="s">
+        <v>496</v>
+      </c>
+      <c r="H197">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>497</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>279</v>
+      </c>
+      <c r="D198" s="1">
+        <v>617</v>
+      </c>
+      <c r="E198" t="s">
+        <v>88</v>
+      </c>
+      <c r="F198" t="s">
+        <v>498</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H198">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>499</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>279</v>
+      </c>
+      <c r="D199" s="1">
+        <v>617</v>
+      </c>
+      <c r="E199" t="s">
+        <v>500</v>
+      </c>
+      <c r="F199" t="s">
+        <v>501</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H199">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>502</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>279</v>
+      </c>
+      <c r="D200" s="1">
+        <v>614</v>
+      </c>
+      <c r="E200" t="s">
+        <v>375</v>
+      </c>
+      <c r="F200" t="s">
+        <v>414</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H200">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>503</v>
+      </c>
+      <c r="B201">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>279</v>
+      </c>
+      <c r="D201" s="1">
+        <v>610</v>
+      </c>
+      <c r="E201" t="s">
+        <v>375</v>
+      </c>
+      <c r="F201" t="s">
+        <v>504</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H201">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>505</v>
+      </c>
+      <c r="B202">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>279</v>
+      </c>
+      <c r="D202" s="1">
+        <v>610</v>
+      </c>
+      <c r="E202" t="s">
+        <v>387</v>
+      </c>
+      <c r="F202" t="s">
+        <v>299</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H202">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>506</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>279</v>
+      </c>
+      <c r="D203" s="1">
+        <v>609</v>
+      </c>
+      <c r="E203" t="s">
+        <v>507</v>
+      </c>
+      <c r="F203" t="s">
+        <v>508</v>
+      </c>
+      <c r="H203">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>509</v>
+      </c>
+      <c r="B204">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>279</v>
+      </c>
+      <c r="D204" s="1">
+        <v>605</v>
+      </c>
+      <c r="E204" t="s">
+        <v>537</v>
+      </c>
+      <c r="F204" t="s">
+        <v>501</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H204">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>510</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>279</v>
+      </c>
+      <c r="D205" s="1">
+        <v>595</v>
+      </c>
+      <c r="E205" t="s">
+        <v>537</v>
+      </c>
+      <c r="F205" t="s">
+        <v>511</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H205">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>512</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>279</v>
+      </c>
+      <c r="D206" s="1">
+        <v>595</v>
+      </c>
+      <c r="E206" t="s">
+        <v>513</v>
+      </c>
+      <c r="F206" t="s">
+        <v>514</v>
+      </c>
+      <c r="H206">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>515</v>
+      </c>
+      <c r="B207">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>279</v>
+      </c>
+      <c r="D207" s="1">
+        <v>588</v>
+      </c>
+      <c r="E207" t="s">
+        <v>387</v>
+      </c>
+      <c r="F207" t="s">
+        <v>281</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H207">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>516</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>279</v>
+      </c>
+      <c r="D208" s="1">
+        <v>587</v>
+      </c>
+      <c r="E208" t="s">
+        <v>517</v>
+      </c>
+      <c r="F208" t="s">
+        <v>518</v>
+      </c>
+      <c r="H208">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>519</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D209" s="1">
+        <v>587</v>
+      </c>
+      <c r="E209" t="s">
+        <v>387</v>
+      </c>
+      <c r="F209" t="s">
+        <v>520</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H209">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>521</v>
+      </c>
+      <c r="B210">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>279</v>
+      </c>
+      <c r="D210" s="1">
+        <v>585</v>
+      </c>
+      <c r="E210" t="s">
+        <v>387</v>
+      </c>
+      <c r="F210" t="s">
+        <v>522</v>
+      </c>
+      <c r="H210">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>523</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>279</v>
+      </c>
+      <c r="D211" s="1">
+        <v>583</v>
+      </c>
+      <c r="E211" t="s">
+        <v>387</v>
+      </c>
+      <c r="F211" t="s">
+        <v>281</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H211">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>524</v>
+      </c>
+      <c r="B212">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>279</v>
+      </c>
+      <c r="D212" s="1">
+        <v>583</v>
+      </c>
+      <c r="E212" t="s">
+        <v>525</v>
+      </c>
+      <c r="F212" t="s">
+        <v>526</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>527</v>
+      </c>
+      <c r="B213">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>279</v>
+      </c>
+      <c r="D213" s="1">
+        <v>582</v>
+      </c>
+      <c r="E213" t="s">
+        <v>387</v>
+      </c>
+      <c r="F213" t="s">
+        <v>520</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H213">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>528</v>
+      </c>
+      <c r="B214">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>279</v>
+      </c>
+      <c r="D214" s="1">
+        <v>578</v>
+      </c>
+      <c r="E214" t="s">
+        <v>529</v>
+      </c>
+      <c r="F214" t="s">
+        <v>483</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H214">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>530</v>
+      </c>
+      <c r="B215">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>279</v>
+      </c>
+      <c r="D215" s="1">
+        <v>578</v>
+      </c>
+      <c r="E215" t="s">
+        <v>531</v>
+      </c>
+      <c r="F215" t="s">
+        <v>532</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H215">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>533</v>
+      </c>
+      <c r="B216">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>279</v>
+      </c>
+      <c r="D216" s="1">
+        <v>568</v>
+      </c>
+      <c r="E216" t="s">
+        <v>534</v>
+      </c>
+      <c r="F216" t="s">
+        <v>302</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H216">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>535</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>279</v>
+      </c>
+      <c r="D217" s="1">
+        <v>566</v>
+      </c>
+      <c r="E217" t="s">
+        <v>529</v>
+      </c>
+      <c r="F217" t="s">
+        <v>536</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H217">
         <v>211</v>
       </c>
     </row>
@@ -3873,7 +7130,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A98:H109">
     <sortCondition descending="1" ref="D98:D109"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
